--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_93.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_93.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['D', 'A', 'E', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:01:49.306000', '0:02:07.327000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.282018', '0:00:38.052267')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>isophonics_291</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[('0:00:05.208150', '0:00:14.983242')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:01:11.700000', '0:01:18.400000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:12.780000', '0:00:16.740000'), ('0:00:30.020000', '0:00:32.120000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07542372881355933</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C', 'G', 'D'], ['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A', 'E', 'B'], ['D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:09.236303', '0:00:12.162018'), ('0:00:08.342335', '0:00:11.175170')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:26.430680', '0:00:30.749591')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:04.740000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:52.020000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.94, 15.94)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.7, 45.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.5, 37.58)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
